--- a/hardware/docs/bom.xlsx
+++ b/hardware/docs/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\OpenProjects\esp32-debugger\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0B832A-73EB-453C-B685-A005C873BF1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36CB64-CB47-4CF5-BF0B-FD82CBBFFE67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A37E1E43-19A4-4E87-96A7-4AFFD6CC07CE}"/>
+    <workbookView xWindow="2205" yWindow="3315" windowWidth="21630" windowHeight="15435" xr2:uid="{A37E1E43-19A4-4E87-96A7-4AFFD6CC07CE}"/>
   </bookViews>
   <sheets>
     <sheet name="esp32-debugger" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Designator</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 4.7μF, X7R, ±10%, 6.3V, 603, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B475KQ8NQNC/1276-2087-6-ND/3892601</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>CL10B104KB8NNNL</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 603, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Panasonic</t>
   </si>
   <si>
-    <t>='='Electromechanics relay'+', '+'32VDC'+', '+'3A'+', '+'1206 case'+', '+Temperature'</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERB-RG3R00V/P16741CT-ND/4280098</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>Yageo</t>
   </si>
   <si>
-    <t>Resistor film, 1k, ±1%, 603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-071KL/311-1-00KHRCT-ND/729790</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>RC0603FR-0722RL</t>
   </si>
   <si>
-    <t>Resistor film, 22R, ±1%, 603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-0722RL/311-22-0HRCT-ND/730002</t>
   </si>
   <si>
@@ -176,30 +161,18 @@
     <t>RC0603FR-075K1L</t>
   </si>
   <si>
-    <t>Resistor film, 5k1, ±1%, 603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-075K1L/311-5-10KHRCT-ND/730215</t>
   </si>
   <si>
-    <t>SB1</t>
-  </si>
-  <si>
     <t>FSM2JSMAATR</t>
   </si>
   <si>
     <t>TE Connectivity</t>
   </si>
   <si>
-    <t>Tactile button, 6x6mm</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/te-connectivity-alcoswitch-switches/FSM2JSMAATR/450-1792-1-ND/3503931</t>
   </si>
   <si>
-    <t>SB2</t>
-  </si>
-  <si>
     <t>Tactile button, 6x3.5mm</t>
   </si>
   <si>
@@ -212,9 +185,6 @@
     <t>Wurth</t>
   </si>
   <si>
-    <t>LED, 20mA, 2V, 603, -55...+150°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060YS75000/732-4981-1-ND/4489907</t>
   </si>
   <si>
@@ -224,9 +194,6 @@
     <t>150060BS75000</t>
   </si>
   <si>
-    <t>LED, 20mA, 3.2V, 603, -55...+150°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060BS75000/732-4966-1-ND/4489893</t>
   </si>
   <si>
@@ -267,6 +234,33 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/USB-Type-C_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.html</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 4.7μF, X7R, ±10%, 6.3V, 0603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 0603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 1k, ±1%, 0603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 22R, ±1%, 0603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 5k1, ±1%, 0603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>LED, 20mA, 2V, 0603, -55...+150°C</t>
+  </si>
+  <si>
+    <t>LED, 20mA, 3.2V, 0603, -55...+150°C</t>
+  </si>
+  <si>
+    <t>SB1, SB2</t>
+  </si>
+  <si>
+    <t>Fuse, 32VDC, 3A, 1206 case</t>
   </si>
 </sst>
 </file>
@@ -856,7 +850,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,21 +904,21 @@
         <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
@@ -933,291 +927,271 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="10">
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
+      <c r="F15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
